--- a/cards/card_spreadsheet.xlsx
+++ b/cards/card_spreadsheet.xlsx
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -280,7 +280,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -684,10 +683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E409D199-6017-4BC2-A752-B58E23564277}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +698,7 @@
     <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -716,7 +715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
@@ -733,7 +732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
@@ -750,7 +749,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -767,7 +766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>45</v>
       </c>
@@ -784,7 +783,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -801,7 +800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
@@ -818,7 +817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
@@ -835,7 +834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -852,7 +851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -869,7 +868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -886,7 +885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
@@ -903,7 +902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
@@ -920,7 +919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
@@ -936,9 +935,8 @@
       <c r="E14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -955,7 +953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -972,7 +970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -989,7 +987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
@@ -1006,7 +1004,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -1023,7 +1021,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -1040,7 +1038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
@@ -1056,7 +1054,6 @@
       <c r="E21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E21" xr:uid="{E409D199-6017-4BC2-A752-B58E23564277}">

--- a/cards/card_spreadsheet.xlsx
+++ b/cards/card_spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unidebhu-my.sharepoint.com/personal/guladam_mailbox_unideb_hu1/Documents/projektek/godot/memory_lane/cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="263" documentId="8_{1AB099F7-9FED-42D0-A55A-24B38A2C4040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59F0C3A7-5903-4700-92BF-5968A055DD5D}"/>
+  <xr:revisionPtr revIDLastSave="818" documentId="8_{1AB099F7-9FED-42D0-A55A-24B38A2C4040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADE55CCF-8ABD-4FBB-B6F7-095B807D3E71}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5244C075-B798-4196-8319-DBAC4837B96A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5244C075-B798-4196-8319-DBAC4837B96A}"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="earth" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fire!$A$1:$E$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fire!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ice!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="139">
   <si>
     <t>Card ID</t>
   </si>
@@ -74,9 +75,6 @@
     <t>SELF</t>
   </si>
   <si>
-    <t>1 hp</t>
-  </si>
-  <si>
     <t>discard_board</t>
   </si>
   <si>
@@ -113,9 +111,6 @@
     <t>small_meteor</t>
   </si>
   <si>
-    <t>burn_alive</t>
-  </si>
-  <si>
     <t>rare</t>
   </si>
   <si>
@@ -125,27 +120,15 @@
     <t>Kill if has Ignite</t>
   </si>
   <si>
-    <t>self_burn</t>
-  </si>
-  <si>
     <t>uncommon</t>
   </si>
   <si>
     <t>air_sparkle</t>
   </si>
   <si>
-    <t>Double ignite</t>
-  </si>
-  <si>
     <t>ground_sparkle</t>
   </si>
   <si>
-    <t>hot_air</t>
-  </si>
-  <si>
-    <t>floor_is_lava</t>
-  </si>
-  <si>
     <t>ALL_AIR</t>
   </si>
   <si>
@@ -158,12 +141,6 @@
     <t>light_up</t>
   </si>
   <si>
-    <t>Heal full, Apply 2 self burn</t>
-  </si>
-  <si>
-    <t>1 DMG, 3 if ignited</t>
-  </si>
-  <si>
     <t>fuel_to_the_fire</t>
   </si>
   <si>
@@ -176,18 +153,9 @@
     <t>meteor_shower</t>
   </si>
   <si>
-    <t>DMG 1</t>
-  </si>
-  <si>
     <t>eruption</t>
   </si>
   <si>
-    <t>hot_visions</t>
-  </si>
-  <si>
-    <t>2 self burn, reveal status</t>
-  </si>
-  <si>
     <t>flying_matches</t>
   </si>
   <si>
@@ -206,9 +174,6 @@
     <t>healing_warmth</t>
   </si>
   <si>
-    <t>heal 1, 2 if you have ignite status</t>
-  </si>
-  <si>
     <t>basic_heal</t>
   </si>
   <si>
@@ -216,6 +181,285 @@
   </si>
   <si>
     <t>EVERYONE</t>
+  </si>
+  <si>
+    <t>icicle</t>
+  </si>
+  <si>
+    <t>snowball</t>
+  </si>
+  <si>
+    <t>1 frost</t>
+  </si>
+  <si>
+    <t>shatter</t>
+  </si>
+  <si>
+    <t>shatter_air</t>
+  </si>
+  <si>
+    <t>shatter_ground</t>
+  </si>
+  <si>
+    <t>shatter_all_ground</t>
+  </si>
+  <si>
+    <t>shatter_all_air</t>
+  </si>
+  <si>
+    <t>freezing_lair</t>
+  </si>
+  <si>
+    <t>shatter_lair</t>
+  </si>
+  <si>
+    <t>frost_bolt</t>
+  </si>
+  <si>
+    <t>1D + 1 Frost</t>
+  </si>
+  <si>
+    <t>freezing_shot</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t>2 heal + discard_board</t>
+  </si>
+  <si>
+    <t>cold_clarity</t>
+  </si>
+  <si>
+    <t>discard a pair</t>
+  </si>
+  <si>
+    <t>throw_ice_cream</t>
+  </si>
+  <si>
+    <t>2 random frost</t>
+  </si>
+  <si>
+    <t>Heal full</t>
+  </si>
+  <si>
+    <t>DMG 1, 2 if ignited</t>
+  </si>
+  <si>
+    <t>2 hp</t>
+  </si>
+  <si>
+    <t>fiery_shuffle</t>
+  </si>
+  <si>
+    <t>discard board + 1 ignite on random enemy</t>
+  </si>
+  <si>
+    <t>gas_station</t>
+  </si>
+  <si>
+    <t>for 3 turns, fuel 1 random enemy</t>
+  </si>
+  <si>
+    <t>playing_with_fire</t>
+  </si>
+  <si>
+    <t>fuel everyone --&gt; passive can target you too</t>
+  </si>
+  <si>
+    <t>pour_gasoline</t>
+  </si>
+  <si>
+    <t>fuel --&gt; all ignite effects are doubled</t>
+  </si>
+  <si>
+    <t>fuel_hose</t>
+  </si>
+  <si>
+    <t>1 heal + 1 rnd frost</t>
+  </si>
+  <si>
+    <t>shatter + transfer frost</t>
+  </si>
+  <si>
+    <t>1(2) if frozen</t>
+  </si>
+  <si>
+    <t>3 freeze, skip turn</t>
+  </si>
+  <si>
+    <t>mismatch --&gt; discard random pair 4 turns</t>
+  </si>
+  <si>
+    <t>discard 2 pairs</t>
+  </si>
+  <si>
+    <t>2 dmg</t>
+  </si>
+  <si>
+    <t>full heal</t>
+  </si>
+  <si>
+    <t>cold_medicine</t>
+  </si>
+  <si>
+    <t>icebreaker</t>
+  </si>
+  <si>
+    <t>freezing_transfer</t>
+  </si>
+  <si>
+    <t>cold_breeze</t>
+  </si>
+  <si>
+    <t>ice_bucket</t>
+  </si>
+  <si>
+    <t>freezing_time</t>
+  </si>
+  <si>
+    <t>keeping_cool</t>
+  </si>
+  <si>
+    <t>cold_shuffle</t>
+  </si>
+  <si>
+    <t>freezing_bolt</t>
+  </si>
+  <si>
+    <t>freezing_strike</t>
+  </si>
+  <si>
+    <t>cool_down</t>
+  </si>
+  <si>
+    <t>1 heal + 1 dmg</t>
+  </si>
+  <si>
+    <t>2 dmg + 2 self dmg</t>
+  </si>
+  <si>
+    <t>3 heal</t>
+  </si>
+  <si>
+    <t>3 link</t>
+  </si>
+  <si>
+    <t>link: damaging this enemy heals you for 1</t>
+  </si>
+  <si>
+    <t>1 heal</t>
+  </si>
+  <si>
+    <t>heal full</t>
+  </si>
+  <si>
+    <t>1 heal + discard board</t>
+  </si>
+  <si>
+    <t>mismatch heals 2 (4 turns)</t>
+  </si>
+  <si>
+    <t>4 dmg to rnd --&gt; heals others full</t>
+  </si>
+  <si>
+    <t>01_dmg_heal_ground</t>
+  </si>
+  <si>
+    <t>02_dmg_heal_air</t>
+  </si>
+  <si>
+    <t>03_dmg_self_ground</t>
+  </si>
+  <si>
+    <t>04_dmg_self_air</t>
+  </si>
+  <si>
+    <t>05_heal</t>
+  </si>
+  <si>
+    <t>06_link_air</t>
+  </si>
+  <si>
+    <t>07_link_ground</t>
+  </si>
+  <si>
+    <t>08_heal_everyone</t>
+  </si>
+  <si>
+    <t>09_heal_full</t>
+  </si>
+  <si>
+    <t>10_heal_discard</t>
+  </si>
+  <si>
+    <t>11_dmg_heal_all_air</t>
+  </si>
+  <si>
+    <t>12_dmg_heal_all_ground</t>
+  </si>
+  <si>
+    <t>13_dmg_self_all_air</t>
+  </si>
+  <si>
+    <t>14_dmg_self_all_ground</t>
+  </si>
+  <si>
+    <t>15_link_all_air</t>
+  </si>
+  <si>
+    <t>16_link_all_ground</t>
+  </si>
+  <si>
+    <t>17_link_all_enemies</t>
+  </si>
+  <si>
+    <t>18_mismatch_heal</t>
+  </si>
+  <si>
+    <t>19_dmg_random</t>
+  </si>
+  <si>
+    <t>20_dmg_self_all_enemies</t>
+  </si>
+  <si>
+    <t>passive: overheal deals 1 dmg to a random enemy</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>overheal dmg vfx</t>
+  </si>
+  <si>
+    <t>dmg vfx (for dmg_self)</t>
+  </si>
+  <si>
+    <t>link vfx</t>
+  </si>
+  <si>
+    <t>icons</t>
+  </si>
+  <si>
+    <t>heal+dmg</t>
+  </si>
+  <si>
+    <t>dmg+selfdmg</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>heal+discard</t>
+  </si>
+  <si>
+    <t>mismatch heal</t>
+  </si>
+  <si>
+    <t>dmg random</t>
+  </si>
+  <si>
+    <t>passive icon</t>
   </si>
 </sst>
 </file>
@@ -239,7 +483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,8 +502,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -267,11 +529,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -280,6 +557,11 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -601,7 +883,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,25 +933,25 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -683,10 +965,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E409D199-6017-4BC2-A752-B58E23564277}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -717,348 +999,418 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>24</v>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <f t="array" ref="B25">SUM(IF($C$2:$C$21=E25,1))</f>
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <f>B25/$B$29</f>
+        <v>0.45</v>
+      </c>
+      <c r="D25" s="6">
+        <f>A25-B25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <f t="array" ref="B26">SUM(IF($C$2:$C$21=E26,1))</f>
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <f>B26/$B$29</f>
+        <v>0.35</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" ref="D26:D27" si="0">A26-B26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <f t="array" ref="B27">SUM(IF($C$2:$C$21=E27,1))</f>
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f>B27/$B$29</f>
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>SUM(A25:A27)</f>
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B25:B27)</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E21" xr:uid="{E409D199-6017-4BC2-A752-B58E23564277}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
-      <sortCondition ref="A1:A21"/>
+  <autoFilter ref="A1:E16" xr:uid="{E409D199-6017-4BC2-A752-B58E23564277}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
+      <sortCondition ref="A1:A16"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1067,55 +1419,945 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C1D5B3-DBE7-4186-89A0-1A0BD4029576}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="array" ref="B27">SUM(IF($C$2:$C$25=E27,1))</f>
+        <v>10</v>
+      </c>
+      <c r="C27" s="7">
+        <f>B27/$B$31</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="array" ref="B28">SUM(IF($C$2:$C$25=E28,1))</f>
+        <v>9</v>
+      </c>
+      <c r="C28" s="7">
+        <f>B28/$B$31</f>
+        <v>0.375</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f t="array" ref="B29">SUM(IF($C$2:$C$25=E29,1))</f>
+        <v>5</v>
+      </c>
+      <c r="C29" s="7">
+        <f>B29/$B$31</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>SUM(B27:B29)</f>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{99C1D5B3-DBE7-4186-89A0-1A0BD4029576}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E25">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824845FD-B089-432A-84EE-659222715D7C}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="G1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/cards/card_spreadsheet.xlsx
+++ b/cards/card_spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unidebhu-my.sharepoint.com/personal/guladam_mailbox_unideb_hu1/Documents/projektek/godot/memory_lane/cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="818" documentId="8_{1AB099F7-9FED-42D0-A55A-24B38A2C4040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADE55CCF-8ABD-4FBB-B6F7-095B807D3E71}"/>
+  <xr:revisionPtr revIDLastSave="888" documentId="8_{1AB099F7-9FED-42D0-A55A-24B38A2C4040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77F6E1F6-6B64-4897-A13C-5CBDD39EE974}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5244C075-B798-4196-8319-DBAC4837B96A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5244C075-B798-4196-8319-DBAC4837B96A}"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="150">
   <si>
     <t>Card ID</t>
   </si>
@@ -460,6 +460,39 @@
   </si>
   <si>
     <t>passive icon</t>
+  </si>
+  <si>
+    <t>(done in frost)</t>
+  </si>
+  <si>
+    <t>(done in heal full)</t>
+  </si>
+  <si>
+    <t>aoe_dmg_vfx</t>
+  </si>
+  <si>
+    <t>cards</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>tooltips</t>
+  </si>
+  <si>
+    <t>starting trait status</t>
+  </si>
+  <si>
+    <t>(add to character data)</t>
+  </si>
+  <si>
+    <t>link status</t>
+  </si>
+  <si>
+    <t>card logic</t>
+  </si>
+  <si>
+    <t>status logic</t>
   </si>
 </sst>
 </file>
@@ -483,7 +516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,12 +544,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -560,8 +587,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1421,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C1D5B3-DBE7-4186-89A0-1A0BD4029576}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824845FD-B089-432A-84EE-659222715D7C}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,10 +1979,12 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1980,373 +2007,406 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="G5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="J5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="G7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="G8" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="J8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="G9" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="G10" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="G11" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="G12" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="G13" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="C18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="9" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="E20" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="D21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="5" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2356,7 +2416,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" t="s">
         <v>126</v>
       </c>
     </row>

--- a/cards/card_spreadsheet.xlsx
+++ b/cards/card_spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unidebhu-my.sharepoint.com/personal/guladam_mailbox_unideb_hu1/Documents/projektek/godot/memory_lane/cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="888" documentId="8_{1AB099F7-9FED-42D0-A55A-24B38A2C4040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77F6E1F6-6B64-4897-A13C-5CBDD39EE974}"/>
+  <xr:revisionPtr revIDLastSave="894" documentId="8_{1AB099F7-9FED-42D0-A55A-24B38A2C4040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B1635FF-D040-4460-AE13-89E97B8C7388}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5244C075-B798-4196-8319-DBAC4837B96A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5244C075-B798-4196-8319-DBAC4837B96A}"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -993,7 +993,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="A6:E6"/>
+      <selection activeCell="E14" activeCellId="3" sqref="A4:E4 A6:E6 A8:E8 A14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C1D5B3-DBE7-4186-89A0-1A0BD4029576}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,7 +1968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824845FD-B089-432A-84EE-659222715D7C}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/cards/card_spreadsheet.xlsx
+++ b/cards/card_spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unidebhu-my.sharepoint.com/personal/guladam_mailbox_unideb_hu1/Documents/projektek/godot/memory_lane/cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="894" documentId="8_{1AB099F7-9FED-42D0-A55A-24B38A2C4040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B1635FF-D040-4460-AE13-89E97B8C7388}"/>
+  <xr:revisionPtr revIDLastSave="900" documentId="8_{1AB099F7-9FED-42D0-A55A-24B38A2C4040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B281C126-C786-4B97-B74F-57202E7B90C3}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5244C075-B798-4196-8319-DBAC4837B96A}"/>
   </bookViews>
@@ -516,7 +516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,6 +544,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -587,6 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1446,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C1D5B3-DBE7-4186-89A0-1A0BD4029576}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E21" sqref="A20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,73 +1791,73 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="B19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="B22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="8"/>
@@ -1911,12 +1918,11 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f t="array" ref="B27">SUM(IF($C$2:$C$25=E27,1))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" s="7">
         <f>B27/$B$31</f>
-        <v>0.41666666666666669</v>
+        <v>0.4</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -1924,12 +1930,11 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28">
-        <f t="array" ref="B28">SUM(IF($C$2:$C$25=E28,1))</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="7">
         <f>B28/$B$31</f>
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="E28" t="s">
         <v>25</v>
@@ -1942,7 +1947,7 @@
       </c>
       <c r="C29" s="7">
         <f>B29/$B$31</f>
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="E29" t="s">
         <v>22</v>
@@ -1951,7 +1956,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>SUM(B27:B29)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
